--- a/static/downloads/97 Bưu điện Tỉnh Cà Mau.xlsx
+++ b/static/downloads/97 Bưu điện Tỉnh Cà Mau.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B210"/>
+  <dimension ref="A1:B209"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2392,7 +2392,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>973090_ngannk</t>
+          <t>972643_nhiny</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -2404,7 +2404,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>972643_nhiny</t>
+          <t>973420_ny</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -2416,7 +2416,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>973420_ny</t>
+          <t>973040_quynh</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -2428,7 +2428,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>973040_quynh</t>
+          <t>973240_diem</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -2440,7 +2440,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>973240_diem</t>
+          <t>971760_linh1</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -2452,7 +2452,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>971760_linh1</t>
+          <t>972540_hieu1</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -2464,7 +2464,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>972540_hieu1</t>
+          <t>972520_hienhc</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -2476,7 +2476,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>972520_hienhc</t>
+          <t>973510_nhottn</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -2488,7 +2488,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>973510_nhottn</t>
+          <t>972700_hua1</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -2500,7 +2500,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>972700_hua1</t>
+          <t>973240_diemnk</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -2512,7 +2512,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>973240_diemnk</t>
+          <t>973332_tien</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -2524,7 +2524,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>973332_tien</t>
+          <t>971151_pho</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -2536,7 +2536,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>971151_pho</t>
+          <t>971760_tangpv</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -2548,7 +2548,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>971760_tangpv</t>
+          <t>972100_oanh</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -2560,7 +2560,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>972100_oanh</t>
+          <t>971705_it</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -2572,7 +2572,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>971705_it</t>
+          <t>972350_xuyenmk</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -2584,7 +2584,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>972350_xuyenmk</t>
+          <t>971760_lienlp</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -2596,7 +2596,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>971760_lienlp</t>
+          <t>972440_thiettk</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -2608,7 +2608,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>972440_thiettk</t>
+          <t>971570_it</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -2620,7 +2620,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>971570_it</t>
+          <t>972401_phongnt</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -2632,7 +2632,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>972401_phongnt</t>
+          <t>971950_mui</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -2644,7 +2644,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>971950_mui</t>
+          <t>971760_daolth</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -2656,7 +2656,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>971760_daolth</t>
+          <t>972440_thiet</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -2668,7 +2668,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>972440_thiet</t>
+          <t>973040_nhungtm</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -2680,7 +2680,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>973040_nhungtm</t>
+          <t>971850_thu_1</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -2692,7 +2692,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>971850_thu_1</t>
+          <t>972180_thuna</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -2704,7 +2704,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>972180_thuna</t>
+          <t>971151_it1</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -2716,7 +2716,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>971151_it1</t>
+          <t>971151_it</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
@@ -2728,7 +2728,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>971151_it</t>
+          <t>972350_xuyen</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -2740,7 +2740,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>972350_xuyen</t>
+          <t>971760_anhnn</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -2752,7 +2752,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>971760_anhnn</t>
+          <t>972750_diemnt</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -2764,7 +2764,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>972750_diemnt</t>
+          <t>972730_tuyen</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -2776,7 +2776,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>972730_tuyen</t>
+          <t>972644_muoinh</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -2788,7 +2788,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>972644_muoinh</t>
+          <t>971599_it</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
@@ -2800,7 +2800,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>971599_it</t>
+          <t>972401_nunn</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -2812,7 +2812,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>972401_nunn</t>
+          <t>970000_dungtm</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -2824,7 +2824,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>970000_dungtm</t>
+          <t>971570_it1</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -2836,7 +2836,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>971570_it1</t>
+          <t>972256_kieu</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
@@ -2848,7 +2848,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>972256_kieu</t>
+          <t>971850_phitl_1</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
@@ -2860,7 +2860,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>971850_phitl_1</t>
+          <t>972350_trongth</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
@@ -2872,7 +2872,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>972350_trongth</t>
+          <t>973292_anhnl</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
@@ -2884,7 +2884,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>973292_anhnl</t>
+          <t>972401_nu</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
@@ -2896,7 +2896,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>972401_nu</t>
+          <t>971950_nhanhtk</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
@@ -2908,7 +2908,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>971950_nhanhtk</t>
+          <t>972730_tuyen1</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
@@ -2920,22 +2920,10 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>972730_tuyen1</t>
+          <t>973292_anh</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
-        <is>
-          <t>97_Bưu điện Tỉnh Cà Mau</t>
-        </is>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" t="inlineStr">
-        <is>
-          <t>973292_anh</t>
-        </is>
-      </c>
-      <c r="B210" t="inlineStr">
         <is>
           <t>97_Bưu điện Tỉnh Cà Mau</t>
         </is>
